--- a/Task.xlsx
+++ b/Task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>Header</t>
   </si>
   <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Icon dark mode (sẽ hoàn thành sau khi xong hết web)</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
     <t xml:space="preserve">     Logo</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
   </si>
   <si>
     <t>Popup</t>
+  </si>
+  <si>
+    <t>Phần làm sau khi xong web</t>
   </si>
   <si>
     <t>Dark mode</t>
@@ -1438,10 +1453,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J986"/>
+  <dimension ref="A1:J990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -1503,7 +1518,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:10">
+    <row r="3" ht="14.25" customHeight="1" outlineLevel="1" spans="1:10">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -1517,126 +1532,126 @@
       <c r="I3" s="9"/>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="14.25" customHeight="1" outlineLevel="1" spans="1:10">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="9"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="15"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="9"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" spans="1:10">
+    <row r="5" ht="14.25" customHeight="1" outlineLevel="1" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="9"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" spans="1:10">
+    <row r="6" ht="14.25" customHeight="1" outlineLevel="1" spans="1:10">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="15"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="9"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" ht="9" hidden="1" customHeight="1" outlineLevel="2" spans="1:10">
+    <row r="7" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:10">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="9"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="9"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" spans="1:10">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="9"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" spans="1:10">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="9"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="9" hidden="1" customHeight="1" outlineLevel="2" spans="1:10">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="21"/>
+      <c r="J11" s="22"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="10"/>
@@ -1650,7 +1665,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="10"/>
@@ -1692,7 +1707,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="10"/>
@@ -1706,7 +1721,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="10"/>
@@ -1755,10 +1770,68 @@
       <c r="I20" s="9"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1"/>
@@ -2721,73 +2794,77 @@
     <row r="984" ht="14.25" customHeight="1"/>
     <row r="985" ht="14.25" customHeight="1"/>
     <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D19">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="H22">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D23">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D24">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D4:D14">
+  <conditionalFormatting sqref="D2:D6 D8:D18">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4:H14">
+  <conditionalFormatting sqref="H2:H6 H8:H18">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
